--- a/project/DCR/data/门店批量导入.xlsx
+++ b/project/DCR/data/门店批量导入.xlsx
@@ -1416,12 +1416,12 @@
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>1shopID20221206164541</t>
+          <t>1shopID20221207094124</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>1门店导入20221206164541</t>
+          <t>1门店导入20221207094124</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
@@ -1513,12 +1513,12 @@
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
         <is>
-          <t>2shopID20221206164541</t>
+          <t>2shopID20221207094124</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>2门店导入20221206164541</t>
+          <t>2门店导入20221207094124</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
